--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\System\GoogleDrive\STM32F401CCU6_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D9DCF0-F859-4D4B-8F6D-2F91BD0DBC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4975B-007F-4F2D-ABFA-5EB05ADFDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>F0</t>
   </si>
   <si>
-    <t>F1,F2</t>
-  </si>
-  <si>
     <t>L101</t>
   </si>
   <si>
@@ -413,7 +410,13 @@
     <t>https://jlcpcb.com/</t>
   </si>
   <si>
-    <t>7,57/5</t>
+    <t>F2,F3</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>1808 fuse 2A</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -979,19 +982,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="43" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1352,7 +1345,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,16 +1372,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
@@ -1397,10 +1390,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
@@ -1412,16 +1405,16 @@
         <f>PRODUCT(C3:D3)</f>
         <v>0.02</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>92</v>
+      <c r="F3" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1433,16 +1426,16 @@
         <f t="shared" ref="E4:E67" si="0">PRODUCT(C4:D4)</f>
         <v>0.01</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>92</v>
+      <c r="F4" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -1454,16 +1447,16 @@
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>92</v>
+      <c r="F5" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1475,16 +1468,16 @@
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>92</v>
+      <c r="F6" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
@@ -1496,16 +1489,16 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>92</v>
+      <c r="F7" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
@@ -1517,8 +1510,8 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>92</v>
+      <c r="F8" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1557,7 +1550,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
@@ -1569,10 +1562,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4">
         <v>20</v>
@@ -1584,16 +1577,16 @@
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>93</v>
+      <c r="F13" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -1605,16 +1598,16 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>94</v>
+      <c r="F14" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -1626,16 +1619,16 @@
         <f t="shared" si="0"/>
         <v>0.216</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>95</v>
+      <c r="F15" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -1647,16 +1640,16 @@
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>96</v>
+      <c r="F16" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1668,16 +1661,16 @@
         <f t="shared" si="0"/>
         <v>5.5E-2</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>96</v>
+      <c r="F17" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1689,8 +1682,8 @@
         <f t="shared" si="0"/>
         <v>9.4E-2</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>96</v>
+      <c r="F18" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,7 +1722,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
@@ -1741,10 +1734,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1756,8 +1749,8 @@
         <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>97</v>
+      <c r="F23" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,7 +1789,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="7"/>
@@ -1824,7 +1817,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -1845,15 +1838,15 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
@@ -1865,8 +1858,8 @@
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>100</v>
+      <c r="F30" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1905,7 +1898,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
@@ -1920,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -1932,16 +1925,16 @@
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>101</v>
+      <c r="F35" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -1954,15 +1947,15 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1975,7 +1968,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2014,7 +2007,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -2041,16 +2034,16 @@
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>104</v>
+      <c r="F42" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
@@ -2063,15 +2056,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2084,15 +2077,15 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -2105,15 +2098,15 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
@@ -2126,7 +2119,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2165,7 +2158,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="7"/>
@@ -2177,7 +2170,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -2192,41 +2185,51 @@
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>110</v>
+      <c r="F51" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" ref="E52" si="1">PRODUCT(C52:D52)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="4">
         <v>2</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>6.3E-2</v>
       </c>
-      <c r="E52" s="8">
-        <f t="shared" si="0"/>
+      <c r="E53" s="8">
+        <f>PRODUCT(C53:D53)</f>
         <v>0.126</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -2253,7 +2256,7 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -2265,10 +2268,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="4">
         <v>10</v>
@@ -2280,16 +2283,16 @@
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>109</v>
+      <c r="F57" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
@@ -2301,16 +2304,16 @@
         <f t="shared" si="0"/>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>109</v>
+      <c r="F58" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
@@ -2322,16 +2325,16 @@
         <f t="shared" si="0"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>109</v>
+      <c r="F59" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -2344,15 +2347,15 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4">
         <v>2</v>
@@ -2365,15 +2368,15 @@
         <v>1.4E-2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -2385,16 +2388,16 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>112</v>
+      <c r="F62" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -2406,16 +2409,16 @@
         <f t="shared" si="0"/>
         <v>0.192</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>113</v>
+      <c r="F63" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="4">
         <v>2</v>
@@ -2427,16 +2430,16 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>114</v>
+      <c r="F64" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -2448,16 +2451,16 @@
         <f t="shared" si="0"/>
         <v>0.122</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>115</v>
+      <c r="F65" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="4">
         <v>8</v>
@@ -2469,8 +2472,8 @@
         <f t="shared" si="0"/>
         <v>0.35199999999999998</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>116</v>
+      <c r="F66" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2490,7 +2493,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="9"/>
       <c r="E68" s="8">
-        <f t="shared" ref="E68:E80" si="1">PRODUCT(C68:D68)</f>
+        <f t="shared" ref="E68:E80" si="2">PRODUCT(C68:D68)</f>
         <v>0</v>
       </c>
       <c r="F68" s="2"/>
@@ -2501,7 +2504,7 @@
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F69" s="2"/>
@@ -2509,22 +2512,22 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -2533,19 +2536,19 @@
         <v>2.867</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.867</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>120</v>
+      <c r="F71" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -2554,19 +2557,19 @@
         <v>1.145</v>
       </c>
       <c r="E72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.145</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>117</v>
+      <c r="F72" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="4">
         <v>4</v>
@@ -2575,11 +2578,11 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.468</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>121</v>
+      <c r="F73" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2588,7 +2591,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="7"/>
       <c r="E74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F74" s="2"/>
@@ -2599,7 +2602,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75" s="2"/>
@@ -2610,7 +2613,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F76" s="2"/>
@@ -2618,12 +2621,12 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F77" s="2"/>
@@ -2631,20 +2634,21 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>127</v>
+      <c r="D78" s="7">
+        <f>7.57/5</f>
+        <v>1.514</v>
       </c>
       <c r="E78" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>1.514</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2653,7 +2657,7 @@
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F79" s="2"/>
@@ -2664,21 +2668,21 @@
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="13">
+      <c r="A81" s="2"/>
+      <c r="B81" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="12">
         <f>SUM(E3:E80)</f>
-        <v>14.773</v>
+        <v>15.482999999999999</v>
       </c>
       <c r="F81" s="2"/>
     </row>
@@ -2696,7 +2700,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2958,15 +2962,16 @@
     <hyperlink ref="F35" r:id="rId21" xr:uid="{A519A668-9BD4-4734-B840-F2D1A48EE8E5}"/>
     <hyperlink ref="F42" r:id="rId22" xr:uid="{47D9E113-8B4C-46CC-9BBD-B6BDED6C6F6C}"/>
     <hyperlink ref="F51" r:id="rId23" xr:uid="{461B6C62-09E7-40E1-95D1-29659026DB0F}"/>
-    <hyperlink ref="F52" r:id="rId24" xr:uid="{17430722-0F70-4EA4-A1B5-6A4281FB9ABE}"/>
+    <hyperlink ref="F53" r:id="rId24" xr:uid="{17430722-0F70-4EA4-A1B5-6A4281FB9ABE}"/>
     <hyperlink ref="F16" r:id="rId25" xr:uid="{1098B5B9-D32A-4CC4-96D4-49137B870C18}"/>
     <hyperlink ref="F18" r:id="rId26" xr:uid="{AEEABD11-FD70-4526-B56D-CF5EC25A460E}"/>
     <hyperlink ref="F17" r:id="rId27" xr:uid="{C18217E6-2895-4114-9537-6F631C5A42A8}"/>
     <hyperlink ref="F71" r:id="rId28" xr:uid="{68B5AD88-BB27-4243-B22D-27D7417C4BC3}"/>
     <hyperlink ref="F73" r:id="rId29" xr:uid="{E2834768-AEB2-41D5-93BB-6DC467734245}"/>
     <hyperlink ref="F78" r:id="rId30" xr:uid="{E85DF315-6A7B-4719-9F14-4B690DD90562}"/>
+    <hyperlink ref="F52" r:id="rId31" xr:uid="{E95AA187-B8DA-4612-B821-31C01FB0422D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId31"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId32"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\System\GoogleDrive\STM32F401CCU6_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\System\GoogleDrive\Open Hardware\STM32F401CCU6_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4975B-007F-4F2D-ABFA-5EB05ADFDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE85D8D-0F00-4E96-8390-1B2331B9E886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,21 +275,12 @@
     <t>C202, C205 ,C208, C211</t>
   </si>
   <si>
-    <t>R306, R309, R312 ,R315</t>
-  </si>
-  <si>
     <t>R101, R102</t>
   </si>
   <si>
     <t>R403, R406, R409</t>
   </si>
   <si>
-    <t>R401, R404, R407</t>
-  </si>
-  <si>
-    <t>R001, R305, R308, R402, R405, R408, R501, R502</t>
-  </si>
-  <si>
     <t>R301, R302, R303, R304, R307, R310, R313, R316</t>
   </si>
   <si>
@@ -410,13 +401,22 @@
     <t>https://jlcpcb.com/</t>
   </si>
   <si>
-    <t>F2,F3</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
     <t>1808 fuse 2A</t>
+  </si>
+  <si>
+    <t>R306, R309, R312, R315</t>
+  </si>
+  <si>
+    <t>F2, F3</t>
+  </si>
+  <si>
+    <t>R401, R404, R407, R501, R502</t>
+  </si>
+  <si>
+    <t>R001, R305, R308, R402, R405, R408</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1375,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
@@ -1406,7 +1406,7 @@
         <v>0.02</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>0.01</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -1448,7 +1448,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1456,7 +1456,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1469,7 +1469,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
@@ -1490,7 +1490,7 @@
         <v>0.04</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
@@ -1511,7 +1511,7 @@
         <v>0.04</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
         <v>0.18</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1599,12 +1599,12 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>79</v>
@@ -1620,7 +1620,7 @@
         <v>0.216</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1913,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -1926,7 +1926,7 @@
         <v>0.26</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1968,7 +1968,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2035,7 +2035,7 @@
         <v>0.108</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
@@ -2056,7 +2056,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2186,15 +2186,15 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2228,7 +2228,7 @@
         <v>0.126</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2326,7 +2326,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
         <v>0.192</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
         <v>0.3</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
         <v>0.122</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,7 +2540,7 @@
         <v>2.867</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,7 +2561,7 @@
         <v>1.145</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,7 +2582,7 @@
         <v>3.468</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
@@ -2634,7 +2634,7 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>1.514</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2676,7 +2676,7 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\System\GoogleDrive\Open Hardware\STM32F401CCU6_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoogleDrive\Open Hardware\STM32F401CCU6_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE85D8D-0F00-4E96-8390-1B2331B9E886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF0777-CAC1-4787-89A5-C5A391CB234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PCB_Marlin_STM30F401CCU6_ma" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -137,9 +138,6 @@
     <t>KF7.62 4-PIN</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>Resistors</t>
   </si>
   <si>
@@ -417,6 +415,9 @@
   </si>
   <si>
     <t>R001, R305, R308, R402, R405, R408</t>
+  </si>
+  <si>
+    <t>POWER</t>
   </si>
 </sst>
 </file>
@@ -1344,21 +1345,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="123.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="72.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="123.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="72.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1372,28 +1373,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
@@ -1406,15 +1407,15 @@
         <v>0.02</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1427,15 +1428,15 @@
         <v>0.01</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -1448,15 +1449,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1469,15 +1470,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
@@ -1490,15 +1491,15 @@
         <v>0.04</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
@@ -1511,10 +1512,10 @@
         <v>0.04</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1525,7 +1526,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1547,10 +1548,10 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
@@ -1560,12 +1561,12 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4">
         <v>20</v>
@@ -1578,15 +1579,15 @@
         <v>0.18</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -1599,15 +1600,15 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -1620,15 +1621,15 @@
         <v>0.216</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -1641,12 +1642,12 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1662,12 +1663,12 @@
         <v>5.5E-2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -1683,10 +1684,10 @@
         <v>9.4E-2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1697,7 +1698,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1708,7 +1709,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1719,10 +1720,10 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
@@ -1732,9 +1733,9 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -1750,10 +1751,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -1764,7 +1765,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -1775,7 +1776,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -1786,10 +1787,10 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="7"/>
@@ -1799,7 +1800,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1817,15 +1818,15 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -1838,15 +1839,15 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
@@ -1859,10 +1860,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
@@ -1873,7 +1874,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
@@ -1895,10 +1896,10 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
@@ -1908,12 +1909,12 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -1926,10 +1927,10 @@
         <v>0.26</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1947,10 +1948,10 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -1968,10 +1969,10 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
@@ -1982,7 +1983,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="4"/>
@@ -1993,7 +1994,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4"/>
@@ -2004,10 +2005,10 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -2017,7 +2018,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2035,15 +2036,15 @@
         <v>0.108</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
@@ -2056,10 +2057,10 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -2077,10 +2078,10 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -2098,15 +2099,15 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
@@ -2119,10 +2120,10 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4"/>
@@ -2133,7 +2134,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
@@ -2155,10 +2156,10 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="7"/>
@@ -2168,9 +2169,9 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -2186,15 +2187,15 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2207,15 +2208,15 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -2228,10 +2229,10 @@
         <v>0.126</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
@@ -2242,7 +2243,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
@@ -2253,10 +2254,10 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -2266,12 +2267,12 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="4">
         <v>10</v>
@@ -2284,15 +2285,15 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
@@ -2305,15 +2306,15 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
@@ -2326,15 +2327,15 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -2347,15 +2348,15 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="4">
         <v>2</v>
@@ -2368,10 +2369,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>28</v>
       </c>
@@ -2389,15 +2390,15 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -2410,15 +2411,15 @@
         <v>0.192</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="4">
         <v>2</v>
@@ -2431,12 +2432,12 @@
         <v>0.3</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>30</v>
@@ -2452,15 +2453,15 @@
         <v>0.122</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="4">
         <v>8</v>
@@ -2473,10 +2474,10 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
@@ -2487,7 +2488,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2498,7 +2499,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="4"/>
@@ -2509,10 +2510,10 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
@@ -2522,7 +2523,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -2540,10 +2541,10 @@
         <v>2.867</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>24</v>
       </c>
@@ -2561,15 +2562,15 @@
         <v>1.145</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4">
         <v>4</v>
@@ -2582,10 +2583,10 @@
         <v>3.468</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2596,7 +2597,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
@@ -2618,10 +2619,10 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
@@ -2631,10 +2632,10 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -2648,10 +2649,10 @@
         <v>1.514</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="4"/>
@@ -2662,7 +2663,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="4"/>
@@ -2673,10 +2674,10 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
@@ -2686,254 +2687,254 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
